--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2000.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2000.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170257657267193</v>
+        <v>0.8136539459228516</v>
       </c>
       <c r="B1">
-        <v>2.277024945270465</v>
+        <v>2.867855787277222</v>
       </c>
       <c r="C1">
-        <v>8.144952308252829</v>
+        <v>7.588922500610352</v>
       </c>
       <c r="D1">
-        <v>2.483447100159787</v>
+        <v>2.203446865081787</v>
       </c>
       <c r="E1">
-        <v>1.214643003288172</v>
+        <v>1.473876476287842</v>
       </c>
     </row>
   </sheetData>
